--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/testEnemyNumerial.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/testEnemyNumerial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="10815"/>
+    <workbookView windowWidth="20625" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -46,22 +46,16 @@
   <si>
     <t>attackSpeed</t>
   </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -85,8 +79,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,15 +103,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -123,49 +126,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,29 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,8 +163,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -238,6 +232,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -250,19 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,151 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,11 +426,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,60 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -537,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1040,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1094,10 +1088,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1111,8 +1105,8 @@
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
+      <c r="I2" s="2">
+        <v>180</v>
       </c>
       <c r="J2" s="3">
         <v>0.5</v>
@@ -1126,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1143,8 +1137,8 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
+      <c r="I3" s="3">
+        <v>252</v>
       </c>
       <c r="J3" s="4">
         <v>0.525</v>
@@ -1158,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1176,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>504</v>
+        <v>324</v>
       </c>
       <c r="J4" s="4">
         <v>0.55</v>
@@ -1190,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1208,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <v>616</v>
+        <v>396</v>
       </c>
       <c r="J5" s="4">
         <v>0.575</v>
@@ -1222,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="D6" s="4">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1240,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>728</v>
+        <v>468</v>
       </c>
       <c r="J6" s="4">
         <v>0.6</v>
@@ -1254,10 +1248,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D7" s="4">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1272,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>840</v>
+        <v>540</v>
       </c>
       <c r="J7" s="4">
         <v>0.625</v>
@@ -1286,10 +1280,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="D8" s="4">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1304,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>952</v>
+        <v>612</v>
       </c>
       <c r="J8" s="4">
         <v>0.65</v>
@@ -1318,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="D9" s="4">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1336,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>1064</v>
+        <v>684</v>
       </c>
       <c r="J9" s="4">
         <v>0.675</v>
@@ -1350,10 +1344,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="D10" s="4">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1368,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1176</v>
+        <v>756</v>
       </c>
       <c r="J10" s="4">
         <v>0.7</v>
@@ -1382,10 +1376,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4">
-        <v>280</v>
+        <v>182</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1400,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1288</v>
+        <v>828</v>
       </c>
       <c r="J11" s="4">
         <v>0.725</v>
@@ -1414,10 +1408,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="D12" s="4">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1432,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="J12" s="4">
         <v>0.75</v>
@@ -1446,10 +1440,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="D13" s="4">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1464,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>1512</v>
+        <v>972</v>
       </c>
       <c r="J13" s="4">
         <v>0.775</v>
@@ -1478,10 +1472,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="D14" s="4">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1496,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1624</v>
+        <v>1044</v>
       </c>
       <c r="J14" s="4">
         <v>0.8</v>
@@ -1510,10 +1504,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4">
-        <v>360</v>
+        <v>234</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1528,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>1736</v>
+        <v>1116</v>
       </c>
       <c r="J15" s="4">
         <v>0.825</v>
@@ -1542,10 +1536,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="D16" s="4">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1560,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>1848</v>
+        <v>1188</v>
       </c>
       <c r="J16" s="4">
         <v>0.85</v>
@@ -1574,10 +1568,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D17" s="4">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>1960</v>
+        <v>1260</v>
       </c>
       <c r="J17" s="4">
         <v>0.875</v>
@@ -1606,10 +1600,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="D18" s="4">
-        <v>420</v>
+        <v>273</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1624,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>2072</v>
+        <v>1332</v>
       </c>
       <c r="J18" s="4">
         <v>0.9</v>
@@ -1638,10 +1632,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="D19" s="4">
-        <v>440</v>
+        <v>286</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1656,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>2184</v>
+        <v>1404</v>
       </c>
       <c r="J19" s="4">
         <v>0.925</v>
@@ -1670,10 +1664,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="D20" s="4">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1688,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>2296</v>
+        <v>1476</v>
       </c>
       <c r="J20" s="4">
         <v>0.95</v>
@@ -1702,10 +1696,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>480</v>
+        <v>312</v>
       </c>
       <c r="D21" s="4">
-        <v>480</v>
+        <v>312</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1720,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>2408</v>
+        <v>1548</v>
       </c>
       <c r="J21" s="4">
         <v>0.975</v>
@@ -1734,10 +1728,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="D22" s="4">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1752,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>2520</v>
+        <v>1620</v>
       </c>
       <c r="J22" s="4">
         <v>1</v>
@@ -1766,10 +1760,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="D23" s="4">
-        <v>520</v>
+        <v>338</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1784,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>2632</v>
+        <v>1692</v>
       </c>
       <c r="J23" s="4">
         <v>1.025</v>
@@ -1798,10 +1792,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>540</v>
+        <v>351</v>
       </c>
       <c r="D24" s="4">
-        <v>540</v>
+        <v>351</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1816,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>2744</v>
+        <v>1764</v>
       </c>
       <c r="J24" s="4">
         <v>1.05</v>
@@ -1830,10 +1824,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="D25" s="4">
-        <v>560</v>
+        <v>364</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1848,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>2856</v>
+        <v>1836</v>
       </c>
       <c r="J25" s="4">
         <v>1.075</v>
@@ -1862,10 +1856,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="D26" s="4">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1880,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>2968</v>
+        <v>1908</v>
       </c>
       <c r="J26" s="4">
         <v>1.1</v>
@@ -1894,10 +1888,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="D27" s="4">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1912,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>3080</v>
+        <v>1980</v>
       </c>
       <c r="J27" s="4">
         <v>1.125</v>
@@ -1926,10 +1920,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>620</v>
+        <v>403</v>
       </c>
       <c r="D28" s="4">
-        <v>620</v>
+        <v>403</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1944,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>3192</v>
+        <v>2052</v>
       </c>
       <c r="J28" s="4">
         <v>1.15</v>
@@ -1958,10 +1952,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>640</v>
+        <v>416</v>
       </c>
       <c r="D29" s="4">
-        <v>640</v>
+        <v>416</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1976,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>3304</v>
+        <v>2124</v>
       </c>
       <c r="J29" s="4">
         <v>1.175</v>
@@ -1990,10 +1984,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>660</v>
+        <v>429</v>
       </c>
       <c r="D30" s="4">
-        <v>660</v>
+        <v>429</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -2008,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>3416</v>
+        <v>2196</v>
       </c>
       <c r="J30" s="4">
         <v>1.2</v>
@@ -2022,10 +2016,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>680</v>
+        <v>442</v>
       </c>
       <c r="D31" s="4">
-        <v>680</v>
+        <v>442</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -2040,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>3528</v>
+        <v>2268</v>
       </c>
       <c r="J31" s="4">
         <v>1.225</v>
@@ -2054,10 +2048,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="3">
-        <v>700</v>
+        <v>455</v>
       </c>
       <c r="D32" s="4">
-        <v>700</v>
+        <v>455</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -2072,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>3640</v>
+        <v>2340</v>
       </c>
       <c r="J32" s="4">
         <v>1.25</v>
@@ -2086,10 +2080,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="3">
-        <v>720</v>
+        <v>468</v>
       </c>
       <c r="D33" s="4">
-        <v>720</v>
+        <v>468</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -2104,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>3752</v>
+        <v>2412</v>
       </c>
       <c r="J33" s="4">
         <v>1.275</v>
@@ -2118,10 +2112,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="3">
-        <v>740</v>
+        <v>481</v>
       </c>
       <c r="D34" s="4">
-        <v>740</v>
+        <v>481</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -2136,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>3864</v>
+        <v>2484</v>
       </c>
       <c r="J34" s="4">
         <v>1.3</v>
@@ -2150,10 +2144,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="3">
-        <v>760</v>
+        <v>494</v>
       </c>
       <c r="D35" s="4">
-        <v>760</v>
+        <v>494</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -2168,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>3976</v>
+        <v>2556</v>
       </c>
       <c r="J35" s="4">
         <v>1.325</v>
@@ -2182,10 +2176,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="3">
-        <v>780</v>
+        <v>507</v>
       </c>
       <c r="D36" s="4">
-        <v>780</v>
+        <v>507</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -2200,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>4088</v>
+        <v>2628</v>
       </c>
       <c r="J36" s="4">
         <v>1.35</v>
@@ -2214,10 +2208,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="3">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="D37" s="4">
-        <v>800</v>
+        <v>520</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -2232,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>4200</v>
+        <v>2700</v>
       </c>
       <c r="J37" s="4">
         <v>1.375</v>
@@ -2246,10 +2240,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="3">
-        <v>820</v>
+        <v>533</v>
       </c>
       <c r="D38" s="4">
-        <v>820</v>
+        <v>533</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -2264,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>4312</v>
+        <v>2772</v>
       </c>
       <c r="J38" s="4">
         <v>1.4</v>
@@ -2278,10 +2272,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="3">
-        <v>840</v>
+        <v>546</v>
       </c>
       <c r="D39" s="4">
-        <v>840</v>
+        <v>546</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -2296,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>4424</v>
+        <v>2844</v>
       </c>
       <c r="J39" s="4">
         <v>1.425</v>
@@ -2310,10 +2304,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="3">
-        <v>860</v>
+        <v>559</v>
       </c>
       <c r="D40" s="4">
-        <v>860</v>
+        <v>559</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -2328,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>4536</v>
+        <v>2916</v>
       </c>
       <c r="J40" s="4">
         <v>1.45</v>
@@ -2342,10 +2336,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="3">
-        <v>880</v>
+        <v>572</v>
       </c>
       <c r="D41" s="4">
-        <v>880</v>
+        <v>572</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -2360,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>4648</v>
+        <v>2988</v>
       </c>
       <c r="J41" s="4">
         <v>1.475</v>
@@ -2374,10 +2368,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="3">
-        <v>900</v>
+        <v>585</v>
       </c>
       <c r="D42" s="4">
-        <v>900</v>
+        <v>585</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -2392,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>4760</v>
+        <v>3060</v>
       </c>
       <c r="J42" s="4">
         <v>1.5</v>
@@ -2406,10 +2400,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="3">
-        <v>920</v>
+        <v>598</v>
       </c>
       <c r="D43" s="4">
-        <v>920</v>
+        <v>598</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -2424,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>4872</v>
+        <v>3132</v>
       </c>
       <c r="J43" s="4">
         <v>1.525</v>
@@ -2438,10 +2432,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="3">
-        <v>940</v>
+        <v>611</v>
       </c>
       <c r="D44" s="4">
-        <v>940</v>
+        <v>611</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -2456,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>4984</v>
+        <v>3204</v>
       </c>
       <c r="J44" s="4">
         <v>1.55</v>
@@ -2470,10 +2464,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="3">
-        <v>960</v>
+        <v>624</v>
       </c>
       <c r="D45" s="4">
-        <v>960</v>
+        <v>624</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -2488,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>5096</v>
+        <v>3276</v>
       </c>
       <c r="J45" s="4">
         <v>1.575</v>
@@ -2502,10 +2496,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="3">
-        <v>980</v>
+        <v>637</v>
       </c>
       <c r="D46" s="4">
-        <v>980</v>
+        <v>637</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -2520,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>5208</v>
+        <v>3348</v>
       </c>
       <c r="J46" s="4">
         <v>1.6</v>
@@ -2534,10 +2528,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="3">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="D47" s="4">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -2552,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>5320</v>
+        <v>3420</v>
       </c>
       <c r="J47" s="4">
         <v>1.625</v>
@@ -2566,10 +2560,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="3">
-        <v>1020</v>
+        <v>663</v>
       </c>
       <c r="D48" s="4">
-        <v>1020</v>
+        <v>663</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -2584,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>5432</v>
+        <v>3492</v>
       </c>
       <c r="J48" s="4">
         <v>1.65</v>
@@ -2598,10 +2592,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="3">
-        <v>1040</v>
+        <v>676</v>
       </c>
       <c r="D49" s="4">
-        <v>1040</v>
+        <v>676</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -2616,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>5544</v>
+        <v>3564</v>
       </c>
       <c r="J49" s="4">
         <v>1.675</v>
@@ -2630,10 +2624,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="3">
-        <v>1060</v>
+        <v>689</v>
       </c>
       <c r="D50" s="4">
-        <v>1060</v>
+        <v>689</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
@@ -2648,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>5656</v>
+        <v>3636</v>
       </c>
       <c r="J50" s="4">
         <v>1.7</v>
@@ -2662,10 +2656,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="3">
-        <v>1080</v>
+        <v>702</v>
       </c>
       <c r="D51" s="4">
-        <v>1080</v>
+        <v>702</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
@@ -2680,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>5768</v>
+        <v>3708</v>
       </c>
       <c r="J51" s="4">
         <v>1.725</v>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/testEnemyNumerial.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/testEnemyNumerial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20625" windowHeight="9495"/>
+    <workbookView windowWidth="27810" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -53,8 +53,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -79,11 +79,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,29 +122,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,16 +140,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,36 +178,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,31 +193,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -232,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,80 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,6 +449,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,12 +1040,14 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="Q17" sqref="A1:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
